--- a/output/final-figures/lcr_se4.xlsx
+++ b/output/final-figures/lcr_se4.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="41" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
   <si>
     <t/>
   </si>
@@ -49,12 +106,42 @@
   </si>
   <si>
     <t>nooutliers_05</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="103">
     <font>
       <sz val="11"/>
@@ -1621,11 +1708,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1633,182 +1717,182 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="57" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G2" s="62" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H2" s="63" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="J2" s="65" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="66" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C3" s="67">
-        <v>0.5822234176628566</v>
+        <v>0.58222341766285657</v>
       </c>
       <c r="D3" s="68">
-        <v>0.5680640932976787</v>
+        <v>0.56806409329767871</v>
       </c>
       <c r="E3" s="69">
-        <v>0.8183302714833273</v>
+        <v>0.81833027148332727</v>
       </c>
       <c r="F3" s="70">
-        <v>0.8260793920864353</v>
+        <v>0.82607939208643533</v>
       </c>
       <c r="G3" s="71">
-        <v>1.481992726545851</v>
+        <v>1.4819927265458512</v>
       </c>
       <c r="H3" s="72">
-        <v>0.7565231426543478</v>
+        <v>0.75652314265434784</v>
       </c>
       <c r="I3" s="73">
-        <v>0.8500371730625058</v>
+        <v>0.85003717306250581</v>
       </c>
       <c r="J3" s="74">
-        <v>0.6907911513039734</v>
+        <v>0.69079115130397339</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="75" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C4" s="76">
-        <v>0.3819372200217883</v>
+        <v>0.38193722002178826</v>
       </c>
       <c r="D4" s="77">
-        <v>0.2700161610043679</v>
+        <v>0.27001616100436793</v>
       </c>
       <c r="E4" s="78">
-        <v>0.4953182501593567</v>
+        <v>0.49531825015935671</v>
       </c>
       <c r="F4" s="79">
-        <v>0.4980015782990247</v>
+        <v>0.49800157829902475</v>
       </c>
       <c r="G4" s="80">
-        <v>1.244689483749012</v>
+        <v>1.2446894837490123</v>
       </c>
       <c r="H4" s="81">
-        <v>0.6306570077969246</v>
+        <v>0.63065700779692457</v>
       </c>
       <c r="I4" s="82">
-        <v>0.7431842826791779</v>
+        <v>0.74318428267917791</v>
       </c>
       <c r="J4" s="83">
-        <v>0.5830121588387215</v>
+        <v>0.58301215883872148</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="84" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C5" s="85">
-        <v>13254173183.69165</v>
+        <v>13254173183.691654</v>
       </c>
       <c r="D5" s="86">
-        <v>12381634797.56897</v>
+        <v>12381634797.568972</v>
       </c>
       <c r="E5" s="87">
-        <v>8148581668.880569</v>
+        <v>8148581668.8805695</v>
       </c>
       <c r="F5" s="88">
-        <v>6856626891.746182</v>
+        <v>6856626891.7461824</v>
       </c>
       <c r="G5" s="89">
-        <v>17618393681.93241</v>
+        <v>17618393681.932411</v>
       </c>
       <c r="H5" s="90">
-        <v>12202789514.46185</v>
+        <v>12202789514.461853</v>
       </c>
       <c r="I5" s="91">
-        <v>4176557228.23629</v>
+        <v>4176557228.2362895</v>
       </c>
       <c r="J5" s="92">
-        <v>4934058265.200996</v>
+        <v>4934058265.2009964</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="93" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C6" s="94" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D6" s="95" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E6" s="96" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G6" s="98" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H6" s="99" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I6" s="100" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J6" s="101" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K6" s="102" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/output/final-figures/lcr_se4.xlsx
+++ b/output/final-figures/lcr_se4.xlsx
@@ -1787,19 +1787,19 @@
         <v>0.56806409329767871</v>
       </c>
       <c r="E3" s="69">
-        <v>0.81833027148332727</v>
+        <v>0.81833027148332682</v>
       </c>
       <c r="F3" s="70">
         <v>0.82607939208643533</v>
       </c>
       <c r="G3" s="71">
-        <v>1.4819927265458512</v>
+        <v>1.481992726545851</v>
       </c>
       <c r="H3" s="72">
         <v>0.75652314265434784</v>
       </c>
       <c r="I3" s="73">
-        <v>0.85003717306250581</v>
+        <v>0.8500371730625057</v>
       </c>
       <c r="J3" s="74">
         <v>0.69079115130397339</v>
@@ -1819,7 +1819,7 @@
         <v>0.49531825015935671</v>
       </c>
       <c r="F4" s="79">
-        <v>0.49800157829902475</v>
+        <v>0.49800157829902464</v>
       </c>
       <c r="G4" s="80">
         <v>1.2446894837490123</v>
@@ -1828,7 +1828,7 @@
         <v>0.63065700779692457</v>
       </c>
       <c r="I4" s="82">
-        <v>0.74318428267917791</v>
+        <v>0.7431842826791778</v>
       </c>
       <c r="J4" s="83">
         <v>0.58301215883872148</v>
@@ -1842,7 +1842,7 @@
         <v>13254173183.691654</v>
       </c>
       <c r="D5" s="86">
-        <v>12381634797.568972</v>
+        <v>12381634797.56897</v>
       </c>
       <c r="E5" s="87">
         <v>8148581668.8805695</v>
@@ -1851,16 +1851,16 @@
         <v>6856626891.7461824</v>
       </c>
       <c r="G5" s="89">
-        <v>17618393681.932411</v>
+        <v>17618393681.932404</v>
       </c>
       <c r="H5" s="90">
         <v>12202789514.461853</v>
       </c>
       <c r="I5" s="91">
-        <v>4176557228.2362895</v>
+        <v>4176557228.2362885</v>
       </c>
       <c r="J5" s="92">
-        <v>4934058265.2009964</v>
+        <v>4934058265.2009974</v>
       </c>
     </row>
     <row r="6">
